--- a/breeding_patterns - win, sum/Total_Species_Data_Summary.xlsx
+++ b/breeding_patterns - win, sum/Total_Species_Data_Summary.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/huynhdam_email_sc_edu/Documents/Documents/GitHub/circanual_pero/breeding_patterns/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/huynhdam_email_sc_edu/Documents/Documents/GitHub/circanual_seasonality_breeding_pero/breeding_patterns - win, sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C2CE303CD521E1553718233F1D0C3BD08E95BD7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{175788B3-2F62-42A7-B44D-CC9073CAA58A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_C2CE303CD521E1553718233F1D0C3BD08E95BD7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD573123-B03C-487B-A92D-0088DB5551B2}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27240" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Species_Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -401,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +545,12 @@
         <v>8191</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>SUM(E2:E7)</f>
+        <v>98608</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/breeding_patterns - win, sum/Total_Species_Data_Summary.xlsx
+++ b/breeding_patterns - win, sum/Total_Species_Data_Summary.xlsx
@@ -1,93 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/huynhdam_email_sc_edu/Documents/Documents/GitHub/circanual_seasonality_breeding_pero/breeding_patterns - win, sum/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_C2CE303CD521E1553718233F1D0C3BD08E95BD7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD573123-B03C-487B-A92D-0088DB5551B2}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Species_Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Species_Summary" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>TotalBirths</t>
-  </si>
-  <si>
-    <t>TotalPairs</t>
-  </si>
-  <si>
-    <t>TotalOffspring</t>
-  </si>
-  <si>
-    <t>BW</t>
-  </si>
-  <si>
-    <t>1963 to 2024</t>
-  </si>
-  <si>
-    <t>LL</t>
-  </si>
-  <si>
-    <t>1988 to 2024</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>1990 to 2024</t>
-  </si>
-  <si>
-    <t>EP</t>
-  </si>
-  <si>
-    <t>1996 to 2024</t>
-  </si>
-  <si>
-    <t>SM2</t>
-  </si>
-  <si>
-    <t>2002 to 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalBirths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalPairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalOffspring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1962 to 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988 to 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1989 to 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995 to 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002 to 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -123,15 +103,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -413,20 +384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,116 +408,110 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>6308</v>
-      </c>
-      <c r="D2">
-        <v>1596</v>
-      </c>
-      <c r="E2">
-        <v>35968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="n">
+        <v>6207</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1575</v>
+      </c>
+      <c r="E2" t="n">
+        <v>35548</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>4362</v>
-      </c>
-      <c r="D3">
-        <v>872</v>
-      </c>
-      <c r="E3">
-        <v>25010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="n">
+        <v>4121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>773</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23394</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>4071</v>
-      </c>
-      <c r="D4">
-        <v>759</v>
-      </c>
-      <c r="E4">
-        <v>17332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="n">
+        <v>3985</v>
+      </c>
+      <c r="D4" t="n">
+        <v>739</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16971</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>2868</v>
-      </c>
-      <c r="D5">
-        <v>491</v>
-      </c>
-      <c r="E5">
-        <v>9306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="n">
+        <v>2727</v>
+      </c>
+      <c r="D5" t="n">
+        <v>437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8793</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>1100</v>
-      </c>
-      <c r="D6">
-        <v>167</v>
-      </c>
-      <c r="E6">
-        <v>2801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D6" t="n">
+        <v>159</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>1325</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>210</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>8191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9">
-        <f>SUM(E2:E7)</f>
-        <v>98608</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/breeding_patterns - win, sum/Total_Species_Data_Summary.xlsx
+++ b/breeding_patterns - win, sum/Total_Species_Data_Summary.xlsx
@@ -1,73 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/huynhdam_email_sc_edu/Documents/Documents/GitHub/circanual_seasonality_breeding_pero/breeding_patterns - win, sum/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C2CE303C4F9165BF1256FD7E150C3BD08E95BD7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16F55A8-ABF1-4B6B-BEC6-B3BBD8928D03}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Species_Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Species_Summary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalBirths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalPairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalOffspring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1962 to 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1988 to 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989 to 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1995 to 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002 to 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>TotalBirths</t>
+  </si>
+  <si>
+    <t>TotalPairs</t>
+  </si>
+  <si>
+    <t>TotalOffspring</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>1962 - 2023</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>1988 - 2023</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>1989 - 2023</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>1995 - 2023</t>
+  </si>
+  <si>
+    <t>SM2</t>
+  </si>
+  <si>
+    <t>2002 - 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -103,6 +123,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -384,14 +413,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,110 +439,116 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>6207</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1575</v>
-      </c>
-      <c r="E2" t="n">
-        <v>35548</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>6253</v>
+      </c>
+      <c r="D2">
+        <v>1580</v>
+      </c>
+      <c r="E2">
+        <v>35757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>4121</v>
-      </c>
-      <c r="D3" t="n">
-        <v>773</v>
-      </c>
-      <c r="E3" t="n">
-        <v>23394</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>4236</v>
+      </c>
+      <c r="D3">
+        <v>821</v>
+      </c>
+      <c r="E3">
+        <v>24093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>3985</v>
-      </c>
-      <c r="D4" t="n">
-        <v>739</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16971</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4">
+        <v>4034</v>
+      </c>
+      <c r="D4">
+        <v>751</v>
+      </c>
+      <c r="E4">
+        <v>17184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
-        <v>2727</v>
-      </c>
-      <c r="D5" t="n">
-        <v>437</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8793</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5">
+        <v>2797</v>
+      </c>
+      <c r="D5">
+        <v>470</v>
+      </c>
+      <c r="E5">
+        <v>9021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="n">
-        <v>1080</v>
-      </c>
-      <c r="D6" t="n">
-        <v>159</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2781</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>1092</v>
+      </c>
+      <c r="D6">
+        <v>167</v>
+      </c>
+      <c r="E6">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="n">
-        <v>1325</v>
-      </c>
-      <c r="D7" t="n">
-        <v>210</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8191</v>
+      <c r="C7">
+        <v>1377</v>
+      </c>
+      <c r="D7">
+        <v>222</v>
+      </c>
+      <c r="E7">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>SUM(E2:E7)</f>
+        <v>97337</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/breeding_patterns - win, sum/Total_Species_Data_Summary.xlsx
+++ b/breeding_patterns - win, sum/Total_Species_Data_Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/huynhdam_email_sc_edu/Documents/Documents/GitHub/circanual_seasonality_breeding_pero/breeding_patterns - win, sum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/huynhdam_email_sc_edu/Documents/Documents/GitHub/circanual_seasonality_breeding_pero/database - circanual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C2CE303C4F9165BF1256FD7E150C3BD08E95BD7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16F55A8-ABF1-4B6B-BEC6-B3BBD8928D03}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C2CE303CEA396389FAB5EA7E150C3BD08E95BD7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF5EBD04-512A-4BB7-B6EC-B54A4282CA94}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,10 +447,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>6253</v>
+        <v>6207</v>
       </c>
       <c r="D2">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="E2">
         <v>35757</v>
@@ -464,10 +464,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>4236</v>
+        <v>4121</v>
       </c>
       <c r="D3">
-        <v>821</v>
+        <v>773</v>
       </c>
       <c r="E3">
         <v>24093</v>
@@ -481,10 +481,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>4034</v>
+        <v>3985</v>
       </c>
       <c r="D4">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="E4">
         <v>17184</v>
@@ -498,10 +498,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>2797</v>
+        <v>2727</v>
       </c>
       <c r="D5">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="E5">
         <v>9021</v>
@@ -515,10 +515,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="D6">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E6">
         <v>2802</v>
@@ -532,19 +532,13 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1377</v>
+        <v>1325</v>
       </c>
       <c r="D7">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E7">
         <v>8480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10">
-        <f>SUM(E2:E7)</f>
-        <v>97337</v>
       </c>
     </row>
   </sheetData>

--- a/breeding_patterns - win, sum/Total_Species_Data_Summary.xlsx
+++ b/breeding_patterns - win, sum/Total_Species_Data_Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/huynhdam_email_sc_edu/Documents/Documents/GitHub/circanual_seasonality_breeding_pero/database - circanual/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/huynhdam_email_sc_edu/Documents/Documents/GitHub/circanual_seasonality_breeding_pero/breeding_patterns - win, sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C2CE303CEA396389FAB5EA7E150C3BD08E95BD7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF5EBD04-512A-4BB7-B6EC-B54A4282CA94}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C2CE303CE85160A09894F57E150C3BD08E95BD7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EB621F5-A08E-465C-91D2-418FEFBC84DD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,13 +414,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -447,10 +450,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>6207</v>
+        <v>6253</v>
       </c>
       <c r="D2">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="E2">
         <v>35757</v>
@@ -464,10 +467,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>4121</v>
+        <v>4236</v>
       </c>
       <c r="D3">
-        <v>773</v>
+        <v>821</v>
       </c>
       <c r="E3">
         <v>24093</v>
@@ -481,10 +484,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>3985</v>
+        <v>4034</v>
       </c>
       <c r="D4">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="E4">
         <v>17184</v>
@@ -498,10 +501,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>2727</v>
+        <v>2797</v>
       </c>
       <c r="D5">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="E5">
         <v>9021</v>
@@ -515,10 +518,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="D6">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E6">
         <v>2802</v>
@@ -532,13 +535,19 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1325</v>
+        <v>1377</v>
       </c>
       <c r="D7">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E7">
         <v>8480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>SUM(E2:E7)</f>
+        <v>97337</v>
       </c>
     </row>
   </sheetData>
